--- a/dashboard-ui/src/components/AggregateResults/MRE_Variables.xlsx
+++ b/dashboard-ui/src/components/AggregateResults/MRE_Variables.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD5F53E-F88A-48EA-B903-3545E490F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dereknopp/Desktop/CACI/itm-evaluation-dashboard/dashboard-ui/src/components/AggregateResults/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEEA21E-00C3-6A45-BB02-A15A6426C744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35500" yWindow="-3500" windowWidth="26560" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -690,16 +695,9 @@
     <t>Binary; check that sim1 and sim2 both present AND that only combinations of submarine and jungle OR urban and desert</t>
   </si>
   <si>
-    <t>Binary; TextSimDiff = 1 if all of the following are true: if sim1 or sim2 are submarine, textorder is not &lt; 3, if sim1 or sim2 are jungle, textorder is not &lt; 3, if sim1 or sim2 are desert, textorder is not &gt;2, if sim1 or sim2 are urban, textorder is not &gt;2				Debug.Log("Adding concussion behavior script");
-				patientGameObject.AddComponent&lt;ConcussionBehavior&gt;();</t>
-  </si>
-  <si>
     <t>Median split of attribute scores into high and low, based on ST_AlignText</t>
   </si>
   <si>
-    <t>Median split of attribute scores into high and low,based on ST_AlignSim</t>
-  </si>
-  <si>
     <t>Median split of attribute scores into high and low based on AD_AlignText</t>
   </si>
   <si>
@@ -809,13 +807,19 @@
   </si>
   <si>
     <t>Alignment target = .22</t>
+  </si>
+  <si>
+    <t>Median split of attribute scores into high and low, based on ST_AlignSim</t>
+  </si>
+  <si>
+    <t>Binary; TextSimDiff = 1 if all of the following are true: if sim1 or sim2 are submarine, textorder is not &lt; 3, if sim1 or sim2 are jungle, textorder is not &lt; 3, if sim1 or sim2 are desert, textorder is not &gt;2, if sim1 or sim2 are urban, textorder is not &gt;2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,9 +848,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,2517 +1157,2525 @@
   </sheetPr>
   <dimension ref="A1:EH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="38" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="90.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="135" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="13" style="1" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="138" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="56" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="38" width="13" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="51" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="13" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="135" width="13" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="138" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" ht="18" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:138" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AC1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AX1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BR1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS1" t="s">
         <v>67</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" t="s">
         <v>68</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" t="s">
         <v>69</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" t="s">
         <v>70</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BW1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX1" t="s">
         <v>71</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" t="s">
         <v>72</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" t="s">
         <v>73</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" t="s">
         <v>74</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" t="s">
         <v>75</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" t="s">
         <v>76</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" t="s">
         <v>77</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" t="s">
         <v>78</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CF1" t="s">
         <v>79</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" t="s">
         <v>80</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" t="s">
         <v>81</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CI1" t="s">
         <v>82</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CJ1" t="s">
         <v>83</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CK1" t="s">
         <v>84</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CL1" t="s">
         <v>85</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CM1" t="s">
         <v>86</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CN1" t="s">
         <v>87</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CO1" t="s">
         <v>88</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CP1" t="s">
         <v>89</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CQ1" t="s">
         <v>90</v>
       </c>
-      <c r="CR1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CR1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CS1" t="s">
         <v>91</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CT1" t="s">
         <v>92</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CU1" t="s">
         <v>93</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CV1" t="s">
         <v>94</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CW1" t="s">
         <v>95</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CX1" t="s">
         <v>96</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CY1" t="s">
         <v>97</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="CZ1" t="s">
         <v>98</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DA1" t="s">
         <v>99</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DB1" t="s">
         <v>100</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DC1" t="s">
         <v>101</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DD1" t="s">
         <v>102</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DE1" t="s">
         <v>103</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DF1" t="s">
         <v>104</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DG1" t="s">
         <v>105</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DH1" t="s">
         <v>106</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DI1" t="s">
         <v>107</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DJ1" t="s">
         <v>108</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DK1" t="s">
         <v>109</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DL1" t="s">
         <v>110</v>
       </c>
-      <c r="DM1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DM1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DN1" t="s">
         <v>111</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DO1" t="s">
         <v>112</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DP1" t="s">
         <v>113</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DQ1" t="s">
         <v>114</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DR1" t="s">
         <v>115</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DS1" t="s">
         <v>116</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DT1" t="s">
         <v>117</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DU1" t="s">
         <v>118</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DV1" t="s">
         <v>119</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DW1" t="s">
         <v>120</v>
       </c>
-      <c r="DX1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DX1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DY1" t="s">
         <v>121</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="DZ1" t="s">
         <v>122</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EA1" t="s">
         <v>123</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EB1" t="s">
         <v>124</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="EC1" t="s">
         <v>125</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="ED1" t="s">
         <v>126</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EE1" t="s">
         <v>127</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EF1" t="s">
         <v>128</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EG1" t="s">
         <v>129</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EH1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:138" ht="18" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:138" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>135</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>136</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>136</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>136</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>137</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>137</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" t="s">
         <v>137</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" t="s">
         <v>137</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" t="s">
         <v>138</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" t="s">
         <v>139</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" t="s">
         <v>139</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" t="s">
         <v>140</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" t="s">
         <v>140</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" t="s">
         <v>141</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" t="s">
         <v>139</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" t="s">
         <v>139</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" t="s">
         <v>140</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" t="s">
         <v>140</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" t="s">
         <v>142</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" t="s">
         <v>143</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AJ2" t="s">
         <v>142</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" t="s">
         <v>143</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AL2" t="s">
         <v>142</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" t="s">
         <v>143</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AN2" t="s">
         <v>142</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AO2" t="s">
         <v>143</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AP2" t="s">
         <v>144</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AQ2" t="s">
         <v>145</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AR2" t="s">
         <v>144</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AS2" t="s">
         <v>145</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AT2" t="s">
         <v>144</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AU2" t="s">
         <v>145</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AV2" t="s">
         <v>144</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AW2" t="s">
         <v>145</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AX2" t="s">
         <v>146</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AY2" t="s">
         <v>139</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="AZ2" t="s">
         <v>139</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BA2" t="s">
         <v>140</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BB2" t="s">
         <v>140</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BC2" t="s">
         <v>143</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BD2" t="s">
         <v>142</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BE2" t="s">
         <v>143</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BF2" t="s">
         <v>142</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BG2" t="s">
         <v>143</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BH2" t="s">
         <v>142</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BI2" t="s">
         <v>143</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BJ2" t="s">
         <v>144</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BK2" t="s">
         <v>145</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BL2" t="s">
         <v>144</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BM2" t="s">
         <v>145</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BN2" t="s">
         <v>144</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BO2" t="s">
         <v>145</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BP2" t="s">
         <v>144</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BQ2" t="s">
         <v>145</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BR2" t="s">
         <v>147</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BS2" t="s">
         <v>148</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BT2" t="s">
         <v>148</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BU2" t="s">
         <v>149</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BV2" t="s">
         <v>149</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BW2" t="s">
         <v>150</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BX2" t="s">
         <v>148</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BY2" t="s">
         <v>148</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="BZ2" t="s">
         <v>149</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CA2" t="s">
         <v>149</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CB2" t="s">
         <v>151</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CC2" t="s">
         <v>152</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CD2" t="s">
         <v>151</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CE2" t="s">
         <v>152</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CF2" t="s">
         <v>151</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CG2" t="s">
         <v>152</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CH2" t="s">
         <v>151</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CI2" t="s">
         <v>152</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CJ2" t="s">
         <v>151</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CK2" t="s">
         <v>152</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CL2" t="s">
         <v>151</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CM2" t="s">
         <v>152</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CN2" t="s">
         <v>151</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CO2" t="s">
         <v>152</v>
       </c>
-      <c r="CP2" s="1" t="s">
+      <c r="CP2" t="s">
         <v>151</v>
       </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CQ2" t="s">
         <v>152</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CR2" t="s">
         <v>153</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CS2" t="s">
         <v>148</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CT2" t="s">
         <v>148</v>
       </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CU2" t="s">
         <v>149</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="CV2" t="s">
         <v>149</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CW2" t="s">
         <v>151</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CX2" t="s">
         <v>152</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CY2" t="s">
         <v>151</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="CZ2" t="s">
         <v>152</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DA2" t="s">
         <v>151</v>
       </c>
-      <c r="DB2" s="1" t="s">
+      <c r="DB2" t="s">
         <v>152</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DC2" t="s">
         <v>151</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DD2" t="s">
         <v>152</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DE2" t="s">
         <v>154</v>
       </c>
-      <c r="DF2" s="1" t="s">
+      <c r="DF2" t="s">
         <v>155</v>
       </c>
-      <c r="DG2" s="1" t="s">
+      <c r="DG2" t="s">
         <v>154</v>
       </c>
-      <c r="DH2" s="1" t="s">
+      <c r="DH2" t="s">
         <v>155</v>
       </c>
-      <c r="DI2" s="1" t="s">
+      <c r="DI2" t="s">
         <v>154</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DJ2" t="s">
         <v>155</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DK2" t="s">
         <v>154</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DL2" t="s">
         <v>155</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DM2" t="s">
         <v>156</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="DN2" t="s">
         <v>157</v>
       </c>
-      <c r="DO2" s="1" t="s">
+      <c r="DO2" t="s">
         <v>157</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="DP2" t="s">
         <v>157</v>
       </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="DQ2" t="s">
         <v>157</v>
       </c>
-      <c r="DR2" s="1" t="s">
+      <c r="DR2" t="s">
         <v>158</v>
       </c>
-      <c r="DS2" s="1" t="s">
+      <c r="DS2" t="s">
         <v>158</v>
       </c>
-      <c r="DT2" s="1" t="s">
+      <c r="DT2" t="s">
         <v>158</v>
       </c>
-      <c r="DU2" s="1" t="s">
+      <c r="DU2" t="s">
         <v>158</v>
       </c>
-      <c r="DV2" s="1" t="s">
+      <c r="DV2" t="s">
         <v>136</v>
       </c>
-      <c r="DW2" s="1" t="s">
+      <c r="DW2" t="s">
         <v>136</v>
       </c>
-      <c r="DX2" s="1" t="s">
+      <c r="DX2" t="s">
         <v>159</v>
       </c>
-      <c r="DY2" s="1" t="s">
+      <c r="DY2" t="s">
         <v>160</v>
       </c>
-      <c r="DZ2" s="1" t="s">
+      <c r="DZ2" t="s">
         <v>160</v>
       </c>
-      <c r="EA2" s="1" t="s">
+      <c r="EA2" t="s">
         <v>160</v>
       </c>
-      <c r="EB2" s="1" t="s">
+      <c r="EB2" t="s">
         <v>160</v>
       </c>
-      <c r="EC2" s="1" t="s">
+      <c r="EC2" t="s">
         <v>161</v>
       </c>
-      <c r="ED2" s="1" t="s">
+      <c r="ED2" t="s">
         <v>161</v>
       </c>
-      <c r="EE2" s="1" t="s">
+      <c r="EE2" t="s">
         <v>161</v>
       </c>
-      <c r="EF2" s="1" t="s">
+      <c r="EF2" t="s">
         <v>161</v>
       </c>
-      <c r="EG2" s="1" t="s">
+      <c r="EG2" t="s">
         <v>137</v>
       </c>
-      <c r="EH2" s="1" t="s">
+      <c r="EH2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:138" ht="18" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:138" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>173</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>174</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" t="s">
         <v>176</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>177</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>178</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>178</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
         <v>176</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>177</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" t="s">
         <v>179</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" t="s">
         <v>179</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="X3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" t="s">
         <v>180</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" t="s">
         <v>181</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" t="s">
         <v>182</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB3" t="s">
         <v>183</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AC3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD3" t="s">
         <v>184</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" t="s">
         <v>185</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AF3" t="s">
         <v>186</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AG3" t="s">
         <v>187</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AH3" t="s">
         <v>169</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AI3" t="s">
         <v>169</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AJ3" t="s">
         <v>188</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AK3" t="s">
         <v>188</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AL3" t="s">
         <v>189</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AM3" t="s">
         <v>189</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AN3" t="s">
         <v>190</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AO3" t="s">
         <v>190</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AP3" t="s">
         <v>169</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AQ3" t="s">
         <v>169</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AR3" t="s">
         <v>188</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AS3" t="s">
         <v>188</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AT3" t="s">
         <v>189</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AU3" t="s">
         <v>189</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AV3" t="s">
         <v>190</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AW3" t="s">
         <v>190</v>
       </c>
-      <c r="AX3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AX3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="s">
         <v>184</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="AZ3" t="s">
         <v>185</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BA3" t="s">
         <v>186</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BB3" t="s">
         <v>187</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BC3" t="s">
         <v>169</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BD3" t="s">
         <v>188</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BE3" t="s">
         <v>188</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BF3" t="s">
         <v>189</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BG3" t="s">
         <v>189</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BH3" t="s">
         <v>190</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BI3" t="s">
         <v>190</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BJ3" t="s">
         <v>169</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BK3" t="s">
         <v>169</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BL3" t="s">
         <v>188</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BM3" t="s">
         <v>188</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BN3" t="s">
         <v>189</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BO3" t="s">
         <v>189</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BP3" t="s">
         <v>190</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BQ3" t="s">
         <v>190</v>
       </c>
-      <c r="BR3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BR3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS3" t="s">
         <v>191</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BT3" t="s">
         <v>181</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BU3" t="s">
         <v>182</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BV3" t="s">
         <v>183</v>
       </c>
-      <c r="BW3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BW3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX3" t="s">
         <v>184</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BY3" t="s">
         <v>185</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="BZ3" t="s">
         <v>186</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CA3" t="s">
         <v>187</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CB3" t="s">
         <v>169</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CC3" t="s">
         <v>169</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CD3" t="s">
         <v>188</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CE3" t="s">
         <v>188</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CF3" t="s">
         <v>189</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CG3" t="s">
         <v>189</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CH3" t="s">
         <v>190</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CI3" t="s">
         <v>190</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CJ3" t="s">
         <v>169</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CK3" t="s">
         <v>169</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CL3" t="s">
         <v>188</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CM3" t="s">
         <v>188</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CN3" t="s">
         <v>189</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CO3" t="s">
         <v>189</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CP3" t="s">
         <v>190</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CQ3" t="s">
         <v>190</v>
       </c>
-      <c r="CR3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CR3" t="s">
+        <v>23</v>
+      </c>
+      <c r="CS3" t="s">
         <v>184</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CT3" t="s">
         <v>185</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CU3" t="s">
         <v>186</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CV3" t="s">
         <v>187</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CW3" t="s">
         <v>169</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CX3" t="s">
         <v>169</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="CY3" t="s">
         <v>188</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="CZ3" t="s">
         <v>188</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DA3" t="s">
         <v>189</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DB3" t="s">
         <v>189</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DC3" t="s">
         <v>190</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DD3" t="s">
         <v>190</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DE3" t="s">
         <v>169</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DF3" t="s">
         <v>169</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DG3" t="s">
         <v>188</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DH3" t="s">
         <v>188</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DI3" t="s">
         <v>189</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DJ3" t="s">
         <v>189</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DK3" t="s">
         <v>190</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DL3" t="s">
         <v>190</v>
       </c>
-      <c r="DM3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DM3" t="s">
+        <v>23</v>
+      </c>
+      <c r="DN3" t="s">
         <v>169</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DO3" t="s">
         <v>188</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DP3" t="s">
         <v>189</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="DQ3" t="s">
         <v>190</v>
       </c>
-      <c r="DR3" s="1" t="s">
+      <c r="DR3" t="s">
         <v>169</v>
       </c>
-      <c r="DS3" s="1" t="s">
+      <c r="DS3" t="s">
         <v>188</v>
       </c>
-      <c r="DT3" s="1" t="s">
+      <c r="DT3" t="s">
         <v>189</v>
       </c>
-      <c r="DU3" s="1" t="s">
+      <c r="DU3" t="s">
         <v>190</v>
       </c>
-      <c r="DV3" s="1" t="s">
+      <c r="DV3" t="s">
         <v>192</v>
       </c>
-      <c r="DW3" s="1" t="s">
+      <c r="DW3" t="s">
         <v>193</v>
       </c>
-      <c r="DX3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DY3" s="1" t="s">
+      <c r="DX3" t="s">
+        <v>23</v>
+      </c>
+      <c r="DY3" t="s">
         <v>169</v>
       </c>
-      <c r="DZ3" s="1" t="s">
+      <c r="DZ3" t="s">
         <v>188</v>
       </c>
-      <c r="EA3" s="1" t="s">
+      <c r="EA3" t="s">
         <v>189</v>
       </c>
-      <c r="EB3" s="1" t="s">
+      <c r="EB3" t="s">
         <v>190</v>
       </c>
-      <c r="EC3" s="1" t="s">
+      <c r="EC3" t="s">
         <v>169</v>
       </c>
-      <c r="ED3" s="1" t="s">
+      <c r="ED3" t="s">
         <v>188</v>
       </c>
-      <c r="EE3" s="1" t="s">
+      <c r="EE3" t="s">
         <v>189</v>
       </c>
-      <c r="EF3" s="1" t="s">
+      <c r="EF3" t="s">
         <v>190</v>
       </c>
-      <c r="EG3" s="1" t="s">
+      <c r="EG3" t="s">
         <v>194</v>
       </c>
-      <c r="EH3" s="1" t="s">
+      <c r="EH3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:138" ht="18" customHeight="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:138" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>199</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>199</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>200</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>197</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>201</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>202</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>203</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>203</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>204</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>205</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>199</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>199</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>206</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>206</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>199</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>199</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" t="s">
         <v>206</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" t="s">
         <v>206</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="1" t="s">
+      <c r="X4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="s">
         <v>200</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" t="s">
         <v>207</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" t="s">
         <v>200</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB4" t="s">
         <v>207</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AC4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD4" t="s">
         <v>208</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AE4" t="s">
         <v>209</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AF4" t="s">
         <v>208</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AG4" t="s">
         <v>210</v>
       </c>
-      <c r="AH4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AH4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY4" t="s">
         <v>208</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="AZ4" t="s">
         <v>209</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BA4" t="s">
         <v>208</v>
       </c>
-      <c r="BB4" s="1" t="s">
+      <c r="BB4" t="s">
         <v>209</v>
       </c>
-      <c r="BC4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS4" s="1" t="s">
+      <c r="BC4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS4" t="s">
         <v>200</v>
       </c>
-      <c r="BT4" s="1" t="s">
+      <c r="BT4" t="s">
         <v>207</v>
       </c>
-      <c r="BU4" s="1" t="s">
+      <c r="BU4" t="s">
         <v>200</v>
       </c>
-      <c r="BV4" s="1" t="s">
+      <c r="BV4" t="s">
         <v>207</v>
       </c>
-      <c r="BW4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BX4" s="1" t="s">
+      <c r="BW4" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX4" t="s">
         <v>208</v>
       </c>
-      <c r="BY4" s="1" t="s">
+      <c r="BY4" t="s">
         <v>209</v>
       </c>
-      <c r="BZ4" s="1" t="s">
+      <c r="BZ4" t="s">
         <v>208</v>
       </c>
-      <c r="CA4" s="1" t="s">
+      <c r="CA4" t="s">
         <v>210</v>
       </c>
-      <c r="CB4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CC4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CF4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CK4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CM4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CN4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CO4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CP4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CQ4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CR4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="CS4" s="1" t="s">
+      <c r="CB4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>23</v>
+      </c>
+      <c r="CS4" t="s">
         <v>208</v>
       </c>
-      <c r="CT4" s="1" t="s">
+      <c r="CT4" t="s">
         <v>209</v>
       </c>
-      <c r="CU4" s="1" t="s">
+      <c r="CU4" t="s">
         <v>208</v>
       </c>
-      <c r="CV4" s="1" t="s">
+      <c r="CV4" t="s">
         <v>209</v>
       </c>
-      <c r="CW4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CX4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CY4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CZ4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DB4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DC4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DF4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DG4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DH4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DI4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DJ4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DK4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DM4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DN4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DO4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DP4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DQ4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DR4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DS4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DT4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DU4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DV4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DW4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DX4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DY4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DZ4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="EA4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="EB4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="EC4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="ED4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="EE4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="EF4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="EG4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="EH4" s="1" t="s">
+      <c r="CW4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>211</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>23</v>
+      </c>
+      <c r="EH4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:138" ht="18" customHeight="1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:138" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>216</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
         <v>218</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" t="s">
+        <v>258</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
         <v>219</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" t="s">
+        <v>257</v>
+      </c>
+      <c r="T5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" t="s">
         <v>220</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="W5" t="s">
         <v>221</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" t="s">
         <v>222</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="AE5" t="s">
         <v>223</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AF5" t="s">
         <v>224</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AG5" t="s">
         <v>225</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AH5" t="s">
         <v>226</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AI5" t="s">
         <v>227</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AJ5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AP5" t="s">
         <v>228</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AQ5" t="s">
         <v>229</v>
       </c>
-      <c r="AJ5" s="1" t="s">
+      <c r="AR5" t="s">
         <v>228</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AS5" t="s">
         <v>229</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AT5" t="s">
         <v>228</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AU5" t="s">
         <v>229</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AV5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>232</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>226</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>226</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ5" t="s">
         <v>228</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="BK5" t="s">
         <v>229</v>
       </c>
-      <c r="AP5" s="1" t="s">
+      <c r="BL5" t="s">
+        <v>228</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BP5" t="s">
         <v>230</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="BQ5" t="s">
         <v>231</v>
       </c>
-      <c r="AR5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AW5" s="1" t="s">
+      <c r="BR5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX5" t="s">
         <v>233</v>
       </c>
-      <c r="AX5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY5" s="1" t="s">
+      <c r="BY5" t="s">
         <v>234</v>
       </c>
-      <c r="AZ5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BZ5" t="s">
+        <v>233</v>
+      </c>
+      <c r="CA5" t="s">
         <v>234</v>
       </c>
-      <c r="BB5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
+      <c r="CB5" t="s">
+        <v>235</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>236</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>235</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>235</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>236</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>235</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>236</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>237</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>238</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>237</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>238</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>237</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>238</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>239</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>240</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>23</v>
+      </c>
+      <c r="CS5" t="s">
         <v>233</v>
       </c>
-      <c r="BR5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BU5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BX5" s="1" t="s">
+      <c r="CT5" t="s">
+        <v>234</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>233</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>234</v>
+      </c>
+      <c r="CW5" t="s">
         <v>235</v>
       </c>
-      <c r="BY5" s="1" t="s">
+      <c r="CX5" t="s">
         <v>236</v>
       </c>
-      <c r="BZ5" s="1" t="s">
+      <c r="CY5" t="s">
         <v>235</v>
       </c>
-      <c r="CA5" s="1" t="s">
+      <c r="CZ5" t="s">
         <v>236</v>
       </c>
-      <c r="CB5" s="1" t="s">
+      <c r="DA5" t="s">
+        <v>235</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>236</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>235</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>236</v>
+      </c>
+      <c r="DE5" t="s">
         <v>237</v>
       </c>
-      <c r="CC5" s="1" t="s">
+      <c r="DF5" t="s">
         <v>238</v>
       </c>
-      <c r="CD5" s="1" t="s">
+      <c r="DG5" t="s">
         <v>237</v>
       </c>
-      <c r="CE5" s="1" t="s">
+      <c r="DH5" t="s">
         <v>238</v>
       </c>
-      <c r="CF5" s="1" t="s">
+      <c r="DI5" t="s">
         <v>237</v>
       </c>
-      <c r="CG5" s="1" t="s">
+      <c r="DJ5" t="s">
         <v>238</v>
       </c>
-      <c r="CH5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="CI5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
+      <c r="DK5" t="s">
         <v>239</v>
       </c>
-      <c r="CK5" s="1" t="s">
+      <c r="DL5" t="s">
         <v>240</v>
       </c>
-      <c r="CL5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="CM5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="CO5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="CP5" s="1" t="s">
+      <c r="DM5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DN5" t="s">
         <v>241</v>
       </c>
-      <c r="CQ5" s="1" t="s">
+      <c r="DO5" t="s">
+        <v>241</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>241</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>241</v>
+      </c>
+      <c r="DR5" t="s">
         <v>242</v>
       </c>
-      <c r="CR5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="CS5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CT5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="CU5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="CV5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="CW5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="CX5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="CY5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="CZ5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="DA5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="DB5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="DC5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="DD5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="DE5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="DF5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="DG5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="DH5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="DI5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="DJ5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="DK5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="DL5" s="1" t="s">
+      <c r="DS5" t="s">
         <v>242</v>
       </c>
-      <c r="DM5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DN5" s="1" t="s">
+      <c r="DT5" t="s">
+        <v>242</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>242</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DY5" t="s">
         <v>243</v>
       </c>
-      <c r="DO5" s="1" t="s">
+      <c r="DZ5" t="s">
         <v>243</v>
       </c>
-      <c r="DP5" s="1" t="s">
+      <c r="EA5" t="s">
         <v>243</v>
       </c>
-      <c r="DQ5" s="1" t="s">
+      <c r="EB5" t="s">
         <v>243</v>
       </c>
-      <c r="DR5" s="1" t="s">
+      <c r="EC5" t="s">
         <v>244</v>
       </c>
-      <c r="DS5" s="1" t="s">
+      <c r="ED5" t="s">
         <v>244</v>
       </c>
-      <c r="DT5" s="1" t="s">
+      <c r="EE5" t="s">
         <v>244</v>
       </c>
-      <c r="DU5" s="1" t="s">
+      <c r="EF5" t="s">
         <v>244</v>
       </c>
-      <c r="DV5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DW5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DX5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DY5" s="1" t="s">
+      <c r="EG5" t="s">
         <v>245</v>
       </c>
-      <c r="DZ5" s="1" t="s">
+      <c r="EH5" t="s">
         <v>245</v>
       </c>
-      <c r="EA5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="EB5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="EC5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:138" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>246</v>
       </c>
-      <c r="ED5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="EE5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="EF5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="EG5" s="1" t="s">
+      <c r="B6" t="s">
         <v>247</v>
       </c>
-      <c r="EH5" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:138" ht="18" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="C6" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" t="s">
+        <v>248</v>
+      </c>
+      <c r="I6" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="J6" t="s">
+        <v>248</v>
+      </c>
+      <c r="K6" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" t="s">
         <v>251</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" t="s">
+        <v>251</v>
+      </c>
+      <c r="N6" t="s">
+        <v>212</v>
+      </c>
+      <c r="O6" t="s">
+        <v>212</v>
+      </c>
+      <c r="P6" t="s">
         <v>252</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="Q6" t="s">
+        <v>252</v>
+      </c>
+      <c r="R6" t="s">
+        <v>212</v>
+      </c>
+      <c r="S6" t="s">
+        <v>212</v>
+      </c>
+      <c r="T6" t="s">
         <v>253</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="U6" t="s">
         <v>253</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="V6" t="s">
         <v>212</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="W6" t="s">
         <v>212</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="X6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>249</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>249</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>249</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>23</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>254</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>23</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>23</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>23</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>23</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>254</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>254</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>254</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>254</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>254</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>254</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>254</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>254</v>
+      </c>
+      <c r="EG6" t="s">
         <v>255</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD6" s="1" t="s">
+      <c r="EH6" t="s">
         <v>256</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BO6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BR6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="BT6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="BU6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="BV6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="BW6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BX6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BY6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BZ6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CA6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CB6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CC6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CE6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CF6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CG6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CH6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CI6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CJ6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CK6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CL6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CM6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CN6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CO6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CP6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CQ6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CR6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="CS6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CT6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CU6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CV6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CW6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CX6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CY6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="CZ6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DA6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DB6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DC6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DD6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DE6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DF6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DG6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DH6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DI6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DJ6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DK6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DL6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DM6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DN6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DO6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DP6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DQ6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DR6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DS6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DT6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DU6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DV6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DW6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DX6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DY6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DZ6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="EA6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="EB6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="EC6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="ED6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="EE6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="EF6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="EG6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="EH6" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard-ui/src/components/AggregateResults/MRE_Variables.xlsx
+++ b/dashboard-ui/src/components/AggregateResults/MRE_Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dereknopp/Desktop/CACI/itm-evaluation-dashboard/dashboard-ui/src/components/AggregateResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEEA21E-00C3-6A45-BB02-A15A6426C744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6B1784-B8A6-5649-A94F-ACE919DF432A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35500" yWindow="-3500" windowWidth="26560" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35500" yWindow="-3500" windowWidth="34680" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -704,18 +704,6 @@
     <t>Median split of attribute scores into high and low based on AD_Align</t>
   </si>
   <si>
-    <t>Calculate based on ST_AttribGrp and High/low designation of Medic A and B: “Match” if ST_Attrib_Grp is High and Medic chosen is High OR ST_Attrib_Grp is Low and Medic chosen is Low, else "mismatch"</t>
-  </si>
-  <si>
-    <t>“Match” if ST_Attrib_Grp is High and Medic chosen is High OR ST_Attrib_Grp is Low and Medic chosen is Low; Else “mismatch”</t>
-  </si>
-  <si>
-    <t>Calculate based on ST_AttribGrp and High/low designation of Medic A and B: “Match” if ST_Attrib_Grp is High and Medic chosen is High OR ST_Attrib_Grp is Low and Medic chosen is Low, Else “mismatch”</t>
-  </si>
-  <si>
-    <t>“Match” if ST_Attrib_Grp is High and Medic chosen is High OR ST_Attrib_Grp is Low and Medic chosen is Low, Else “mismatch”</t>
-  </si>
-  <si>
     <t>Average of responses to ST scenarios when individual DM matches ST_Align_Grp</t>
   </si>
   <si>
@@ -734,15 +722,9 @@
     <t>Average of responses to ST scenarios when omnibus DM mismatches ST_Align_Grp</t>
   </si>
   <si>
-    <t>Calculate based on ST_AttribGrp and High/low designation of Medic A and B - “Match” if ST_Attrib_Grp is High and Medic chosen is High OR ST_Attrib_Grp is Low and Medic chosen is Low; else 'mismatch'</t>
-  </si>
-  <si>
     <t>Calculate based on AD_AttribGrp and High/low designation of Medic A and B</t>
   </si>
   <si>
-    <t>“Match” if AD_Attrib_Grp is High and Medic chosen is High OR AD_Attrib_Grp is Low and Medic chosen is Low</t>
-  </si>
-  <si>
     <t>Average of responses to AD scenarios when individual DM matches AD_Align_Grp</t>
   </si>
   <si>
@@ -813,6 +795,24 @@
   </si>
   <si>
     <t>Binary; TextSimDiff = 1 if all of the following are true: if sim1 or sim2 are submarine, textorder is not &lt; 3, if sim1 or sim2 are jungle, textorder is not &lt; 3, if sim1 or sim2 are desert, textorder is not &gt;2, if sim1 or sim2 are urban, textorder is not &gt;2</t>
+  </si>
+  <si>
+    <t>“Match” if AD_AttribGrp is High and Medic chosen is High OR AD_AttribGrp is Low and Medic chosen is Low</t>
+  </si>
+  <si>
+    <t>Calculate based on ST_AttribGrp and High/low designation of Medic A and B: “Match” if ST_AttribGrp is High and Medic chosen is High OR ST_AttribGrp is Low and Medic chosen is Low, else "mismatch"</t>
+  </si>
+  <si>
+    <t>“Match” if ST_AttribGrp is High and Medic chosen is High OR ST_AttribGrp is Low and Medic chosen is Low; Else “mismatch”</t>
+  </si>
+  <si>
+    <t>Calculate based on ST_AttribGrp and High/low designation of Medic A and B: “Match” if ST_AttribGrp is High and Medic chosen is High OR ST_AttribGrp is Low and Medic chosen is Low, Else “mismatch”</t>
+  </si>
+  <si>
+    <t>“Match” if ST_AttribGrp is High and Medic chosen is High OR ST_AttribGrp is Low and Medic chosen is Low, Else “mismatch”</t>
+  </si>
+  <si>
+    <t>Calculate based on ST_AttribGrp and High/low designation of Medic A and B - “Match” if ST_AttribGrp is High and Medic chosen is High OR ST_AttribGrp is Low and Medic chosen is Low; else 'mismatch'</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1157,8 @@
   </sheetPr>
   <dimension ref="A1:EH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BB5" sqref="BB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1166,18 +1166,36 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="185.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="56" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="38" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="29" width="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="157.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="98.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="157.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="98" bestFit="1" customWidth="1"/>
+    <col min="34" max="38" width="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="51" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="90.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="44" width="13" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="135" width="13" bestFit="1" customWidth="1"/>
+    <col min="46" max="50" width="13" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="157.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="98.1640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="157.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="98.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="76" width="13" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="85.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="85.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="97" width="13" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="85.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="13" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="85.5" bestFit="1" customWidth="1"/>
+    <col min="101" max="135" width="13" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="13" hidden="1" bestFit="1" customWidth="1"/>
     <col min="137" max="138" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -2890,7 +2908,7 @@
         <v>218</v>
       </c>
       <c r="O5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
@@ -2902,7 +2920,7 @@
         <v>219</v>
       </c>
       <c r="S5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="T5" t="s">
         <v>23</v>
@@ -2935,372 +2953,372 @@
         <v>23</v>
       </c>
       <c r="AD5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH5" t="s">
         <v>222</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AI5" t="s">
         <v>223</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AJ5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP5" t="s">
         <v>224</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AQ5" t="s">
         <v>225</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AR5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV5" t="s">
         <v>226</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AW5" t="s">
         <v>227</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AX5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>255</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>258</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>255</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>224</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>224</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>224</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP5" t="s">
         <v>226</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="BQ5" t="s">
         <v>227</v>
       </c>
-      <c r="AL5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>227</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP5" t="s">
+      <c r="BR5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX5" t="s">
         <v>228</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="BY5" t="s">
+        <v>253</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>228</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>253</v>
+      </c>
+      <c r="CB5" t="s">
         <v>229</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="CC5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>229</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>229</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>229</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>231</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>232</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>231</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>232</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>231</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>232</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>234</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>23</v>
+      </c>
+      <c r="CS5" t="s">
         <v>228</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="CT5" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>228</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>253</v>
+      </c>
+      <c r="CW5" t="s">
         <v>229</v>
       </c>
-      <c r="AT5" t="s">
-        <v>228</v>
-      </c>
-      <c r="AU5" t="s">
+      <c r="CX5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CY5" t="s">
         <v>229</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="CZ5" t="s">
         <v>230</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="DA5" t="s">
+        <v>229</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>230</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>229</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>230</v>
+      </c>
+      <c r="DE5" t="s">
         <v>231</v>
       </c>
-      <c r="AX5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY5" t="s">
+      <c r="DF5" t="s">
         <v>232</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BA5" t="s">
+      <c r="DG5" t="s">
+        <v>231</v>
+      </c>
+      <c r="DH5" t="s">
         <v>232</v>
       </c>
-      <c r="BB5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>227</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>226</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>227</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>226</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>227</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>226</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>227</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>228</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>229</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>228</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>229</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>229</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BQ5" t="s">
+      <c r="DI5" t="s">
         <v>231</v>
       </c>
-      <c r="BR5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BX5" t="s">
+      <c r="DJ5" t="s">
+        <v>232</v>
+      </c>
+      <c r="DK5" t="s">
         <v>233</v>
       </c>
-      <c r="BY5" t="s">
+      <c r="DL5" t="s">
         <v>234</v>
       </c>
-      <c r="BZ5" t="s">
-        <v>233</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>234</v>
-      </c>
-      <c r="CB5" t="s">
+      <c r="DM5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DN5" t="s">
         <v>235</v>
       </c>
-      <c r="CC5" t="s">
+      <c r="DO5" t="s">
+        <v>235</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>235</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>235</v>
+      </c>
+      <c r="DR5" t="s">
         <v>236</v>
       </c>
-      <c r="CD5" t="s">
-        <v>235</v>
-      </c>
-      <c r="CE5" t="s">
+      <c r="DS5" t="s">
         <v>236</v>
       </c>
-      <c r="CF5" t="s">
-        <v>235</v>
-      </c>
-      <c r="CG5" t="s">
+      <c r="DT5" t="s">
         <v>236</v>
       </c>
-      <c r="CH5" t="s">
-        <v>235</v>
-      </c>
-      <c r="CI5" t="s">
+      <c r="DU5" t="s">
         <v>236</v>
       </c>
-      <c r="CJ5" t="s">
+      <c r="DV5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DY5" t="s">
         <v>237</v>
       </c>
-      <c r="CK5" t="s">
+      <c r="DZ5" t="s">
+        <v>237</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>237</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>237</v>
+      </c>
+      <c r="EC5" t="s">
         <v>238</v>
       </c>
-      <c r="CL5" t="s">
-        <v>237</v>
-      </c>
-      <c r="CM5" t="s">
+      <c r="ED5" t="s">
         <v>238</v>
       </c>
-      <c r="CN5" t="s">
-        <v>237</v>
-      </c>
-      <c r="CO5" t="s">
+      <c r="EE5" t="s">
         <v>238</v>
       </c>
-      <c r="CP5" t="s">
+      <c r="EF5" t="s">
+        <v>238</v>
+      </c>
+      <c r="EG5" t="s">
         <v>239</v>
       </c>
-      <c r="CQ5" t="s">
-        <v>240</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>23</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>233</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>234</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>233</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>234</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>235</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>236</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>235</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>236</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>235</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>236</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>235</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>236</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>237</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>238</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>237</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>238</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>237</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>238</v>
-      </c>
-      <c r="DK5" t="s">
+      <c r="EH5" t="s">
         <v>239</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>240</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>23</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>241</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>241</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>241</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>241</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>242</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>242</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>242</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>242</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>23</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>23</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>23</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>243</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>243</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>243</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>243</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>244</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>244</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>244</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>244</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>245</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:138" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N6" t="s">
         <v>212</v>
@@ -3309,10 +3327,10 @@
         <v>212</v>
       </c>
       <c r="P6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="R6" t="s">
         <v>212</v>
@@ -3321,10 +3339,10 @@
         <v>212</v>
       </c>
       <c r="T6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="U6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="V6" t="s">
         <v>212</v>
@@ -3336,346 +3354,346 @@
         <v>23</v>
       </c>
       <c r="Y6" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>243</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>243</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>243</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>243</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>248</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>23</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>23</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>23</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>23</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>23</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>248</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>248</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>248</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>248</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>248</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>248</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>248</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>248</v>
+      </c>
+      <c r="EG6" t="s">
         <v>249</v>
       </c>
-      <c r="Z6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>249</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>249</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>249</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>249</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>23</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CR6" t="s">
-        <v>23</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CU6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CW6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CY6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DC6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DE6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DF6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DG6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DH6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DI6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DJ6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DK6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DL6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DM6" t="s">
-        <v>23</v>
-      </c>
-      <c r="DN6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DO6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DP6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DQ6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DR6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DT6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DV6" t="s">
-        <v>23</v>
-      </c>
-      <c r="DW6" t="s">
-        <v>23</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>23</v>
-      </c>
-      <c r="DY6" t="s">
-        <v>254</v>
-      </c>
-      <c r="DZ6" t="s">
-        <v>254</v>
-      </c>
-      <c r="EA6" t="s">
-        <v>254</v>
-      </c>
-      <c r="EB6" t="s">
-        <v>254</v>
-      </c>
-      <c r="EC6" t="s">
-        <v>254</v>
-      </c>
-      <c r="ED6" t="s">
-        <v>254</v>
-      </c>
-      <c r="EE6" t="s">
-        <v>254</v>
-      </c>
-      <c r="EF6" t="s">
-        <v>254</v>
-      </c>
-      <c r="EG6" t="s">
-        <v>255</v>
-      </c>
       <c r="EH6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard-ui/src/components/AggregateResults/MRE_Variables.xlsx
+++ b/dashboard-ui/src/components/AggregateResults/MRE_Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dereknopp/Desktop/CACI/itm-evaluation-dashboard/dashboard-ui/src/components/AggregateResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6B1784-B8A6-5649-A94F-ACE919DF432A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E3CB8-8CEF-CF43-B93B-8F96FC55E832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35500" yWindow="-3500" windowWidth="34680" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,45 +704,9 @@
     <t>Median split of attribute scores into high and low based on AD_Align</t>
   </si>
   <si>
-    <t>Average of responses to ST scenarios when individual DM matches ST_Align_Grp</t>
-  </si>
-  <si>
-    <t>Average of responses to ST scenarios when individual DM mismatches ST_Align_Grp</t>
-  </si>
-  <si>
-    <t>Response to omnibus DM when matches ST_Align_Grp</t>
-  </si>
-  <si>
-    <t>Response to omnibus DM when mismatches ST_Align_Grp</t>
-  </si>
-  <si>
-    <t>Average of responses to ST scenarios when omnibus DM matches ST_Align_Grp</t>
-  </si>
-  <si>
-    <t>Average of responses to ST scenarios when omnibus DM mismatches ST_Align_Grp</t>
-  </si>
-  <si>
     <t>Calculate based on AD_AttribGrp and High/low designation of Medic A and B</t>
   </si>
   <si>
-    <t>Average of responses to AD scenarios when individual DM matches AD_Align_Grp</t>
-  </si>
-  <si>
-    <t>Average of responses to AD scenarios when individual DM mismatches AD_Align_Grp</t>
-  </si>
-  <si>
-    <t>Response to omnibus DM when matches AD_Align_Grp</t>
-  </si>
-  <si>
-    <t>Response to omnibus DM when mismatches AD_Align_Grp</t>
-  </si>
-  <si>
-    <t>Average of responses to AD scenarios when omnibus DM matches AD_Align_Grp</t>
-  </si>
-  <si>
-    <t>Average of responses to AD scenarios when omnibus DM mismatches AD_Align_Grp</t>
-  </si>
-  <si>
     <t>Average of responses to ST scenarios for HIGH DMs</t>
   </si>
   <si>
@@ -813,6 +777,42 @@
   </si>
   <si>
     <t>Calculate based on ST_AttribGrp and High/low designation of Medic A and B - “Match” if ST_AttribGrp is High and Medic chosen is High OR ST_AttribGrp is Low and Medic chosen is Low; else 'mismatch'</t>
+  </si>
+  <si>
+    <t>Average of responses to AD scenarios when individual DM matches AD_AttribGrp_Text</t>
+  </si>
+  <si>
+    <t>Average of responses to AD scenarios when individual DM mismatches AD_AttribGrp_Text</t>
+  </si>
+  <si>
+    <t>Response to omnibus DM when matches AD_AttribGrp_Text</t>
+  </si>
+  <si>
+    <t>Response to omnibus DM when mismatches AD_AttribGrp_Text</t>
+  </si>
+  <si>
+    <t>Average of responses to AD scenarios when omnibus DM matches AD_AttribGrp_Text</t>
+  </si>
+  <si>
+    <t>Average of responses to AD scenarios when omnibus DM mismatches AD_AttribGrp_Text</t>
+  </si>
+  <si>
+    <t>Average of responses to ST scenarios when individual DM matches ST_AttribGrp_Text</t>
+  </si>
+  <si>
+    <t>Average of responses to ST scenarios when individual DM mismatches ST_AttribGrp_Text</t>
+  </si>
+  <si>
+    <t>Response to omnibus DM when matches ST_AttribGrp_Text</t>
+  </si>
+  <si>
+    <t>Response to omnibus DM when mismatches ST_AttribGrp_Text</t>
+  </si>
+  <si>
+    <t>Average of responses to ST scenarios when omnibus DM matches ST_AttribGrp_Text</t>
+  </si>
+  <si>
+    <t>Average of responses to ST scenarios when omnibus DM mismatches ST_AttribGrp_Text</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1157,8 @@
   </sheetPr>
   <dimension ref="A1:EH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BB5" sqref="BB5"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
+      <selection activeCell="CG5" sqref="CG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2908,7 +2908,7 @@
         <v>218</v>
       </c>
       <c r="O5" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
@@ -2920,7 +2920,7 @@
         <v>219</v>
       </c>
       <c r="S5" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="T5" t="s">
         <v>23</v>
@@ -2953,372 +2953,372 @@
         <v>23</v>
       </c>
       <c r="AD5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI5" t="s">
         <v>254</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AJ5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AP5" t="s">
         <v>255</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AQ5" t="s">
         <v>256</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AR5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV5" t="s">
         <v>257</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AW5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>246</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>254</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>253</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>254</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>253</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>254</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>255</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>256</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>256</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>256</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>257</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>258</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX5" t="s">
         <v>222</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="BY5" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>241</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>247</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>248</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>247</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>248</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>247</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>248</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>247</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>248</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>249</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>250</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>249</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>250</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>249</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>250</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>251</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>252</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>23</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>222</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>241</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>222</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>241</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>247</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>248</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>247</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>248</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>247</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>248</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>247</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>248</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>249</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>250</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>249</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>250</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>249</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>250</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>251</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>252</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DN5" t="s">
         <v>223</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK5" t="s">
+      <c r="DO5" t="s">
         <v>223</v>
       </c>
-      <c r="AL5" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM5" t="s">
+      <c r="DP5" t="s">
         <v>223</v>
       </c>
-      <c r="AN5" t="s">
-        <v>222</v>
-      </c>
-      <c r="AO5" t="s">
+      <c r="DQ5" t="s">
         <v>223</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="DR5" t="s">
         <v>224</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="DS5" t="s">
+        <v>224</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>224</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>224</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DY5" t="s">
         <v>225</v>
       </c>
-      <c r="AR5" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS5" t="s">
+      <c r="DZ5" t="s">
         <v>225</v>
       </c>
-      <c r="AT5" t="s">
-        <v>224</v>
-      </c>
-      <c r="AU5" t="s">
+      <c r="EA5" t="s">
         <v>225</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="EB5" t="s">
+        <v>225</v>
+      </c>
+      <c r="EC5" t="s">
         <v>226</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="ED5" t="s">
+        <v>226</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>226</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>226</v>
+      </c>
+      <c r="EG5" t="s">
         <v>227</v>
       </c>
-      <c r="AX5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>258</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>255</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>258</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>255</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>222</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>222</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>224</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>225</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>225</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>224</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>225</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>226</v>
-      </c>
-      <c r="BQ5" t="s">
+      <c r="EH5" t="s">
         <v>227</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>228</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>253</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>228</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>253</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>229</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>230</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>229</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>230</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>229</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>230</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>229</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>230</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>231</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>232</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>231</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>232</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>231</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>232</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>233</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>234</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>23</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>228</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>253</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>228</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>253</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>229</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>230</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>229</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>230</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>229</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>230</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>229</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>230</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>231</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>232</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>231</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>232</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>231</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>232</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>233</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>234</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>23</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>235</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>235</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>235</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>235</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>236</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>236</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>236</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>236</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>23</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>23</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>23</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>237</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>237</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>237</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>237</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>238</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>238</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>238</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>238</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>239</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:138" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H6" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J6" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K6" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="L6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="M6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="N6" t="s">
         <v>212</v>
@@ -3327,10 +3327,10 @@
         <v>212</v>
       </c>
       <c r="P6" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="Q6" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="R6" t="s">
         <v>212</v>
@@ -3339,10 +3339,10 @@
         <v>212</v>
       </c>
       <c r="T6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="U6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="V6" t="s">
         <v>212</v>
@@ -3354,307 +3354,307 @@
         <v>23</v>
       </c>
       <c r="Y6" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="Z6" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="AA6" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="AB6" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="AC6" t="s">
         <v>23</v>
       </c>
       <c r="AD6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AE6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AF6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AG6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AH6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AI6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AJ6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AK6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AL6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AM6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AN6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AO6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AP6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AQ6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AR6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AS6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AT6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AU6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AV6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AW6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AX6" t="s">
         <v>23</v>
       </c>
       <c r="AY6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AZ6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BA6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BB6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BC6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BD6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BE6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BF6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BG6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BH6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BI6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BJ6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BK6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BL6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BM6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BN6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BO6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BP6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BQ6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BR6" t="s">
         <v>23</v>
       </c>
       <c r="BS6" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="BT6" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="BU6" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="BV6" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="BW6" t="s">
         <v>23</v>
       </c>
       <c r="BX6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BY6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BZ6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CA6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CB6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CC6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CD6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CE6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CF6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CG6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CH6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CI6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CJ6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CK6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CL6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CM6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CN6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CO6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CP6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CQ6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CR6" t="s">
         <v>23</v>
       </c>
       <c r="CS6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CT6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CU6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CV6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CW6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CX6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CY6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="CZ6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DA6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DB6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DC6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DD6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DE6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DF6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DG6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DH6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DI6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DJ6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DK6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DL6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DM6" t="s">
         <v>23</v>
       </c>
       <c r="DN6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DO6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DP6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DQ6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DR6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DS6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DT6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DU6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DV6" t="s">
         <v>23</v>
@@ -3666,34 +3666,34 @@
         <v>23</v>
       </c>
       <c r="DY6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="DZ6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="EA6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="EB6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="EC6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="ED6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="EE6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="EF6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="EG6" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="EH6" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard-ui/src/components/AggregateResults/MRE_Variables.xlsx
+++ b/dashboard-ui/src/components/AggregateResults/MRE_Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dereknopp/Desktop/CACI/itm-evaluation-dashboard/dashboard-ui/src/components/AggregateResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E3CB8-8CEF-CF43-B93B-8F96FC55E832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97ADA66-1021-104A-96F2-4D1367D4ED2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35500" yWindow="-3500" windowWidth="34680" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,15 +695,6 @@
     <t>Binary; check that sim1 and sim2 both present AND that only combinations of submarine and jungle OR urban and desert</t>
   </si>
   <si>
-    <t>Median split of attribute scores into high and low, based on ST_AlignText</t>
-  </si>
-  <si>
-    <t>Median split of attribute scores into high and low based on AD_AlignText</t>
-  </si>
-  <si>
-    <t>Median split of attribute scores into high and low based on AD_Align</t>
-  </si>
-  <si>
     <t>Calculate based on AD_AttribGrp and High/low designation of Medic A and B</t>
   </si>
   <si>
@@ -755,9 +746,6 @@
     <t>Alignment target = .22</t>
   </si>
   <si>
-    <t>Median split of attribute scores into high and low, based on ST_AlignSim</t>
-  </si>
-  <si>
     <t>Binary; TextSimDiff = 1 if all of the following are true: if sim1 or sim2 are submarine, textorder is not &lt; 3, if sim1 or sim2 are jungle, textorder is not &lt; 3, if sim1 or sim2 are desert, textorder is not &gt;2, if sim1 or sim2 are urban, textorder is not &gt;2</t>
   </si>
   <si>
@@ -813,6 +801,18 @@
   </si>
   <si>
     <t>Average of responses to ST scenarios when omnibus DM mismatches ST_AttribGrp_Text</t>
+  </si>
+  <si>
+    <t>Median split of attribute scores into high and low based on AD_KDMA_Text</t>
+  </si>
+  <si>
+    <t>Median split of attribute scores into high and low based on AD_KDMA_sim</t>
+  </si>
+  <si>
+    <t>Median split of attribute scores into high and low, based on ST_KDMA_Sim</t>
+  </si>
+  <si>
+    <t>Median split of attribute scores into high and low, based on ST_KDMA_Text</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1157,8 @@
   </sheetPr>
   <dimension ref="A1:EH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
-      <selection activeCell="CG5" sqref="CG5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1167,11 +1167,13 @@
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="185.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="56.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="56" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="29" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="13" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="157.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="98.1640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="157.83203125" bestFit="1" customWidth="1"/>
@@ -2908,417 +2910,417 @@
         <v>218</v>
       </c>
       <c r="O5" t="s">
+        <v>236</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>258</v>
+      </c>
+      <c r="S5" t="s">
+        <v>257</v>
+      </c>
+      <c r="T5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" t="s">
+        <v>255</v>
+      </c>
+      <c r="W5" t="s">
+        <v>256</v>
+      </c>
+      <c r="X5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF5" t="s">
         <v>240</v>
       </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="AG5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>239</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>242</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>239</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>249</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>250</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>250</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>249</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>250</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>252</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>252</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>253</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>254</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX5" t="s">
         <v>219</v>
       </c>
-      <c r="S5" t="s">
-        <v>239</v>
-      </c>
-      <c r="T5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="BY5" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>219</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>237</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>244</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>244</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>244</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>244</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>245</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>246</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>245</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>246</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>245</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>246</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>247</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>248</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>23</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>219</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>237</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>219</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>237</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>244</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>244</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>243</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>244</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>243</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>244</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>245</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>246</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>245</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>246</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>245</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>246</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>247</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>248</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DN5" t="s">
         <v>220</v>
       </c>
-      <c r="W5" t="s">
+      <c r="DO5" t="s">
+        <v>220</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>220</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>220</v>
+      </c>
+      <c r="DR5" t="s">
         <v>221</v>
       </c>
-      <c r="X5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>253</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>255</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>255</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>255</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>257</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>258</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>243</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>246</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>243</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>254</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>253</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>254</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>253</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>254</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>253</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>254</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>255</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>256</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>255</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>256</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>255</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>256</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>257</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>258</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BX5" t="s">
+      <c r="DS5" t="s">
+        <v>221</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>221</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>221</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>23</v>
+      </c>
+      <c r="DY5" t="s">
         <v>222</v>
       </c>
-      <c r="BY5" t="s">
-        <v>241</v>
-      </c>
-      <c r="BZ5" t="s">
+      <c r="DZ5" t="s">
         <v>222</v>
       </c>
-      <c r="CA5" t="s">
-        <v>241</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>247</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>248</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>247</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>248</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>247</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>248</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>247</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>248</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>249</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>250</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>249</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>250</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>249</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>250</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>251</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>252</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>23</v>
-      </c>
-      <c r="CS5" t="s">
+      <c r="EA5" t="s">
         <v>222</v>
       </c>
-      <c r="CT5" t="s">
-        <v>241</v>
-      </c>
-      <c r="CU5" t="s">
+      <c r="EB5" t="s">
         <v>222</v>
       </c>
-      <c r="CV5" t="s">
-        <v>241</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>247</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>248</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>247</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>248</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>247</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>248</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>247</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>248</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>249</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>250</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>249</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>250</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>249</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>250</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>251</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>23</v>
-      </c>
-      <c r="DN5" t="s">
+      <c r="EC5" t="s">
         <v>223</v>
       </c>
-      <c r="DO5" t="s">
+      <c r="ED5" t="s">
         <v>223</v>
       </c>
-      <c r="DP5" t="s">
+      <c r="EE5" t="s">
         <v>223</v>
       </c>
-      <c r="DQ5" t="s">
+      <c r="EF5" t="s">
         <v>223</v>
       </c>
-      <c r="DR5" t="s">
+      <c r="EG5" t="s">
         <v>224</v>
       </c>
-      <c r="DS5" t="s">
+      <c r="EH5" t="s">
         <v>224</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>224</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>224</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>23</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>23</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>23</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>225</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>225</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>225</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>225</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>226</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>226</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>226</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>226</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>227</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:138" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" t="s">
         <v>228</v>
       </c>
-      <c r="B6" t="s">
+      <c r="J6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" t="s">
         <v>229</v>
       </c>
-      <c r="C6" t="s">
+      <c r="L6" t="s">
         <v>230</v>
       </c>
-      <c r="D6" t="s">
+      <c r="M6" t="s">
         <v>230</v>
-      </c>
-      <c r="E6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" t="s">
-        <v>231</v>
-      </c>
-      <c r="J6" t="s">
-        <v>230</v>
-      </c>
-      <c r="K6" t="s">
-        <v>232</v>
-      </c>
-      <c r="L6" t="s">
-        <v>233</v>
-      </c>
-      <c r="M6" t="s">
-        <v>233</v>
       </c>
       <c r="N6" t="s">
         <v>212</v>
@@ -3327,10 +3329,10 @@
         <v>212</v>
       </c>
       <c r="P6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="R6" t="s">
         <v>212</v>
@@ -3339,10 +3341,10 @@
         <v>212</v>
       </c>
       <c r="T6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="U6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V6" t="s">
         <v>212</v>
@@ -3354,307 +3356,307 @@
         <v>23</v>
       </c>
       <c r="Y6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Z6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AA6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AB6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AC6" t="s">
         <v>23</v>
       </c>
       <c r="AD6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AE6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AF6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AH6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AI6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AJ6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AK6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AL6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AM6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AN6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AO6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AP6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AQ6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AR6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AS6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AT6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AU6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AV6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AW6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AX6" t="s">
         <v>23</v>
       </c>
       <c r="AY6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AZ6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BA6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BB6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BC6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BD6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BE6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BF6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BG6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BH6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BI6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BJ6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BK6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BL6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BM6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BN6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BO6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BP6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BQ6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BR6" t="s">
         <v>23</v>
       </c>
       <c r="BS6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="BT6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="BU6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="BV6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="BW6" t="s">
         <v>23</v>
       </c>
       <c r="BX6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BY6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BZ6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CA6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CB6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CC6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CD6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CE6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CF6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CG6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CH6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CI6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CJ6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CK6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CL6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CM6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CN6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CO6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CP6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CQ6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CR6" t="s">
         <v>23</v>
       </c>
       <c r="CS6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CT6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CU6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CV6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CW6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CX6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CY6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="CZ6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DA6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DB6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DC6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DD6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DE6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DF6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DG6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DH6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DI6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DJ6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DK6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DL6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DM6" t="s">
         <v>23</v>
       </c>
       <c r="DN6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DO6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DP6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DQ6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DR6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DS6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DT6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DU6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DV6" t="s">
         <v>23</v>
@@ -3666,34 +3668,34 @@
         <v>23</v>
       </c>
       <c r="DY6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="DZ6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="EA6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="EB6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="EC6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="ED6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="EE6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="EF6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="EG6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="EH6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
